--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-46/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-46/curvature_data.xlsx
@@ -379,30 +379,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>56872.703183</v>
+        <v>56764.703178</v>
       </c>
       <c r="B2">
-        <v>-3.2467333504e-05</v>
+        <v>-8.3006987811e-06</v>
       </c>
       <c r="C2">
-        <v>-7.403396786300001e-05</v>
+        <v>-1.251625211e-05</v>
       </c>
       <c r="D2">
-        <v>-0.00010774590186</v>
+        <v>-2.5006722853e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>56847.367182</v>
+        <v>56776.703179</v>
       </c>
       <c r="B3">
-        <v>-8.342377456400001e-05</v>
+        <v>-5.3058287234e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00035027590555</v>
+        <v>-9.6044450644e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00019948538267</v>
+        <v>-0.00010478035846</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -421,44 +421,44 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>56860.367183</v>
+        <v>56803.76718</v>
       </c>
       <c r="B5">
-        <v>-5.3379568976e-05</v>
+        <v>-7.9750443361e-05</v>
       </c>
       <c r="C5">
-        <v>-0.00022876340665</v>
+        <v>-0.00036096135477</v>
       </c>
       <c r="D5">
-        <v>-0.00014214843702</v>
+        <v>-0.00019086726267</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>56883.767184</v>
+        <v>56814.10318</v>
       </c>
       <c r="B6">
-        <v>-4.7242166958e-06</v>
+        <v>-0.0001261955</v>
       </c>
       <c r="C6">
-        <v>-9.7769576818e-06</v>
+        <v>-0.0004898059</v>
       </c>
       <c r="D6">
-        <v>-2.4752365774e-05</v>
+        <v>-0.0002443551</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>56803.76718</v>
+        <v>56824.767181</v>
       </c>
       <c r="B7">
-        <v>-7.9750443361e-05</v>
+        <v>-0.0001936413</v>
       </c>
       <c r="C7">
-        <v>-0.00036096135477</v>
+        <v>-0.0006088012</v>
       </c>
       <c r="D7">
-        <v>-0.00019086726267</v>
+        <v>-0.0003030557</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -477,58 +477,58 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>56814.10318</v>
+        <v>56847.367182</v>
       </c>
       <c r="B9">
-        <v>-0.0001261955</v>
+        <v>-8.342377456400001e-05</v>
       </c>
       <c r="C9">
-        <v>-0.0004898059</v>
+        <v>-0.00035027590555</v>
       </c>
       <c r="D9">
-        <v>-0.0002443551</v>
+        <v>-0.00019948538267</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>56824.767181</v>
+        <v>56860.367183</v>
       </c>
       <c r="B10">
-        <v>-0.0001936413</v>
+        <v>-5.3379568976e-05</v>
       </c>
       <c r="C10">
-        <v>-0.0006088012</v>
+        <v>-0.00022876340665</v>
       </c>
       <c r="D10">
-        <v>-0.0003030557</v>
+        <v>-0.00014214843702</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>56776.703179</v>
+        <v>56872.703183</v>
       </c>
       <c r="B11">
-        <v>-5.3058287234e-05</v>
+        <v>-3.2467333504e-05</v>
       </c>
       <c r="C11">
-        <v>-9.6044450644e-05</v>
+        <v>-7.403396786300001e-05</v>
       </c>
       <c r="D11">
-        <v>-0.00010478035846</v>
+        <v>-0.00010774590186</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>56764.703178</v>
+        <v>56883.767184</v>
       </c>
       <c r="B12">
-        <v>-8.3006987811e-06</v>
+        <v>-4.7242166958e-06</v>
       </c>
       <c r="C12">
-        <v>-1.251625211e-05</v>
+        <v>-9.7769576818e-06</v>
       </c>
       <c r="D12">
-        <v>-2.5006722853e-05</v>
+        <v>-2.4752365774e-05</v>
       </c>
     </row>
   </sheetData>
